--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_18買掛未払金参照の管理(ソース).xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_AP_18買掛未払金参照の管理(ソース).xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\01_セットアップ定義書\10_コンサル\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20247_【会計】基幹システムバージョンアップ（会計領域　AP部門入力）\20_成果物\05.BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10032" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="10032"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">[1]責準明細表!#REF!</definedName>
@@ -29,23 +28,23 @@
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ModeFlag" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_ToCurrency" hidden="1">#REF!</definedName>
     <definedName name="LOV_oracle_apps_financials_generalLedger_currencies_manageRate_di_DesktopDailyRatesInterfacePageDef_UserConversionType" hidden="1">#REF!</definedName>
-    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL004" hidden="1">[3]_ADFDI_LOV!$C$2:$E$2</definedName>
-    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL021" hidden="1">[3]_ADFDI_LOV!$C$4:$AP$4</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ActiveStatus" hidden="1">[4]_ADFDI_LOV!$C$2:$E$2</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_AttributeCategory" hidden="1">[4]_ADFDI_LOV!$C$18:$E$18</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_BillToSite" hidden="1">[4]_ADFDI_LOV!$C$8:$E$8</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation12" hidden="1">[4]_ADFDI_LOV!$C$12:$E$12</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation22" hidden="1">[4]_ADFDI_LOV!$C$14:$E$14</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation32" hidden="1">[4]_ADFDI_LOV!$C$16:$E$16</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_OfficeSite" hidden="1">[4]_ADFDI_LOV!$C$10:$E$10</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ReceivingSite" hidden="1">[4]_ADFDI_LOV!$C$6:$E$6</definedName>
-    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ShipToSite" hidden="1">[4]_ADFDI_LOV!$C$4:$E$4</definedName>
+    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL004" hidden="1">[2]_ADFDI_LOV!$C$2:$E$2</definedName>
+    <definedName name="LOV_oracle_apps_hcm_enterpriseSetup_spreadsheetLoader_ui_HcmGenericSpreadsheetPageDef_PVAL021" hidden="1">[2]_ADFDI_LOV!$C$4:$AP$4</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ActiveStatus" hidden="1">[3]_ADFDI_LOV!$C$2:$E$2</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_AttributeCategory" hidden="1">[3]_ADFDI_LOV!$C$18:$E$18</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_BillToSite" hidden="1">[3]_ADFDI_LOV!$C$8:$E$8</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation12" hidden="1">[3]_ADFDI_LOV!$C$12:$E$12</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation22" hidden="1">[3]_ADFDI_LOV!$C$14:$E$14</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_LleInformation32" hidden="1">[3]_ADFDI_LOV!$C$16:$E$16</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_OfficeSite" hidden="1">[3]_ADFDI_LOV!$C$10:$E$10</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ReceivingSite" hidden="1">[3]_ADFDI_LOV!$C$6:$E$6</definedName>
+    <definedName name="LOV_oracle_apps_hcm_locations_LocationCreateDIPageDef_ShipToSite" hidden="1">[3]_ADFDI_LOV!$C$4:$E$4</definedName>
     <definedName name="あ" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
     <definedName name="う" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="166">
   <si>
     <t>タスク名</t>
     <rPh sb="3" eb="4">
@@ -821,12 +820,69 @@
       <t>目次</t>
     </r>
   </si>
+  <si>
+    <t>SCSK 細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>E_本稼動_20247 STEP4 AP部門入力対応</t>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2024/10/30　追加</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ERP_XX03_ENTRY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ERP_部門入力</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ERP_XX03_ENTRY_FIN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ERP_部門入力(財務経理)</t>
+    <rPh sb="9" eb="11">
+      <t>ザイム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AP控除支払</t>
+    <rPh sb="2" eb="4">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SALES_DEDUCTION_AP</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,8 +997,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +1030,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1245,7 +1314,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1384,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1351,6 +1427,52 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1369,32 +1491,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1473,6 +1569,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1513,129 +1614,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="修正履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="AP_0"/>
-      <sheetName val="AP_2-1"/>
-      <sheetName val="AP_2-2"/>
-      <sheetName val="AP_2-1.3"/>
-      <sheetName val="AP_2-1.4"/>
-      <sheetName val="AP_3"/>
-      <sheetName val="AP_4"/>
-      <sheetName val="AP_5"/>
-      <sheetName val="AP_8"/>
-      <sheetName val="AP_10"/>
-      <sheetName val="AP_12"/>
-      <sheetName val="AP_13"/>
-      <sheetName val="AP_14"/>
-      <sheetName val="AP_15"/>
-      <sheetName val="AP_16"/>
-      <sheetName val="AP_17"/>
-      <sheetName val="AP_18"/>
-      <sheetName val="AP_20"/>
-      <sheetName val="AP_25"/>
-      <sheetName val="AP_26"/>
-      <sheetName val="AP_28"/>
-      <sheetName val="AP_29-1"/>
-      <sheetName val="AP_29-2"/>
-      <sheetName val="AP_30"/>
-      <sheetName val="AP_31"/>
-      <sheetName val="AP_33"/>
-      <sheetName val="AP_34"/>
-      <sheetName val="AP_35"/>
-      <sheetName val="AP_37"/>
-      <sheetName val="OLD_AP_37"/>
-      <sheetName val="AP_39"/>
-      <sheetName val="AP_40"/>
-      <sheetName val="AP_7"/>
-      <sheetName val="AP_9"/>
-      <sheetName val="AP_11"/>
-      <sheetName val="AP_19-1"/>
-      <sheetName val="AP_19-2"/>
-      <sheetName val="AP_19-3"/>
-      <sheetName val="AP_19-4"/>
-      <sheetName val="AP_23"/>
-      <sheetName val="AP_24"/>
-      <sheetName val="AP_27"/>
-      <sheetName val="AP_36-1"/>
-      <sheetName val="AP_36-4"/>
-      <sheetName val="AP_38-1"/>
-      <sheetName val="AP_38-2"/>
-      <sheetName val="AP_38-3"/>
-      <sheetName val="AP_38-4"/>
-      <sheetName val="AP_41"/>
-      <sheetName val="AP_42"/>
-      <sheetName val="AP_43"/>
-      <sheetName val="AP_44"/>
-      <sheetName val="AP_45"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Spreadsheet Loader"/>
       <sheetName val="Flexfields Reference"/>
       <sheetName val="_ADFDI_Parameters"/>
@@ -1787,7 +1765,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2146,1158 +2124,1164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE40" sqref="AE40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.95" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="3" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:37" ht="10.95" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="33"/>
-    </row>
-    <row r="3" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="36"/>
+    </row>
+    <row r="3" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A3" s="37">
         <v>44970</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="36"/>
-    </row>
-    <row r="4" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="43"/>
-    </row>
-    <row r="5" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="56"/>
-    </row>
-    <row r="6" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="59"/>
-    </row>
-    <row r="7" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="62"/>
-    </row>
-    <row r="8" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="62"/>
-    </row>
-    <row r="9" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="71"/>
-    </row>
-    <row r="10" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="62"/>
-    </row>
-    <row r="11" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="73"/>
-    </row>
-    <row r="12" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-    </row>
-    <row r="13" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="73"/>
-    </row>
-    <row r="14" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="73"/>
-    </row>
-    <row r="15" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="73"/>
-    </row>
-    <row r="16" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="73"/>
-    </row>
-    <row r="17" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="73"/>
-    </row>
-    <row r="18" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="73"/>
-    </row>
-    <row r="19" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="73"/>
-    </row>
-    <row r="20" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="73"/>
-    </row>
-    <row r="21" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="73"/>
-    </row>
-    <row r="22" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="73"/>
-    </row>
-    <row r="23" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="73"/>
-    </row>
-    <row r="24" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="73"/>
-    </row>
-    <row r="25" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="73"/>
-    </row>
-    <row r="26" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="73"/>
-    </row>
-    <row r="27" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="73"/>
-    </row>
-    <row r="28" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="73"/>
-    </row>
-    <row r="29" spans="1:37" ht="10.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="73"/>
-    </row>
-    <row r="30" spans="1:37" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="77"/>
-      <c r="AK30" s="78"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="39"/>
+    </row>
+    <row r="4" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A4" s="44">
+        <v>45665</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="52"/>
+    </row>
+    <row r="5" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="61"/>
+    </row>
+    <row r="6" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="70"/>
+    </row>
+    <row r="7" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="73"/>
+    </row>
+    <row r="8" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+    </row>
+    <row r="9" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="82"/>
+    </row>
+    <row r="10" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="84"/>
+    </row>
+    <row r="12" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="84"/>
+    </row>
+    <row r="13" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="84"/>
+    </row>
+    <row r="14" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="84"/>
+    </row>
+    <row r="15" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="84"/>
+    </row>
+    <row r="16" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="84"/>
+    </row>
+    <row r="17" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
+      <c r="AI17" s="83"/>
+      <c r="AJ17" s="83"/>
+      <c r="AK17" s="84"/>
+    </row>
+    <row r="18" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="84"/>
+    </row>
+    <row r="20" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="83"/>
+      <c r="AK20" s="84"/>
+    </row>
+    <row r="21" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="83"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="84"/>
+    </row>
+    <row r="22" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="84"/>
+    </row>
+    <row r="23" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="84"/>
+    </row>
+    <row r="24" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="83"/>
+      <c r="AK24" s="84"/>
+    </row>
+    <row r="25" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="83"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="84"/>
+    </row>
+    <row r="26" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="83"/>
+      <c r="AF26" s="83"/>
+      <c r="AG26" s="83"/>
+      <c r="AH26" s="83"/>
+      <c r="AI26" s="83"/>
+      <c r="AJ26" s="83"/>
+      <c r="AK26" s="84"/>
+    </row>
+    <row r="27" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="84"/>
+    </row>
+    <row r="28" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="84"/>
+    </row>
+    <row r="29" spans="1:37" ht="10.95" customHeight="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="84"/>
+    </row>
+    <row r="30" spans="1:37" ht="10.95" customHeight="1" thickBot="1">
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="88"/>
+      <c r="AK30" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -3396,13 +3380,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.8984375" style="1" customWidth="1"/>
@@ -3415,36 +3402,36 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" s="4" customFormat="1">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" s="9" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -3452,25 +3439,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -3499,7 +3486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -3522,7 +3509,7 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
@@ -3545,7 +3532,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
@@ -3568,7 +3555,7 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
@@ -3591,7 +3578,7 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -3617,7 +3604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="13" t="s">
         <v>30</v>
       </c>
@@ -3643,182 +3630,190 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="31">
+        <v>36892</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="31">
+        <v>36892</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="31">
+        <v>36892</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="18">
-        <v>40169</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="20">
-        <v>40168</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="B24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="E24" s="18">
+        <v>40169</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="15">
-        <v>29221</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="15">
-        <v>37334</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="E26" s="20">
+        <v>40168</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>31</v>
@@ -3828,23 +3823,21 @@
         <v>35</v>
       </c>
       <c r="E28" s="15">
-        <v>40773</v>
+        <v>29221</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>31</v>
@@ -3854,11 +3847,11 @@
         <v>35</v>
       </c>
       <c r="E29" s="15">
-        <v>36907</v>
+        <v>37334</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -3866,9 +3859,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
-        <v>56</v>
+    <row r="30" spans="1:10">
+      <c r="A30" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>31</v>
@@ -3877,12 +3870,10 @@
       <c r="D30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="15">
-        <v>35796</v>
-      </c>
+      <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -3890,9 +3881,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>31</v>
@@ -3901,20 +3892,24 @@
       <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="15">
+        <v>40773</v>
+      </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>31</v>
@@ -3923,10 +3918,12 @@
       <c r="D32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="15">
+        <v>36907</v>
+      </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -3934,9 +3931,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>62</v>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>31</v>
@@ -3946,11 +3943,11 @@
         <v>35</v>
       </c>
       <c r="E33" s="15">
-        <v>29221</v>
+        <v>35796</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -3958,9 +3955,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
-        <v>64</v>
+    <row r="34" spans="1:10">
+      <c r="A34" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>31</v>
@@ -3969,12 +3966,10 @@
       <c r="D34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="15">
-        <v>18629</v>
-      </c>
+      <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -3982,9 +3977,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>31</v>
@@ -3996,7 +3991,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -4004,9 +3999,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>31</v>
@@ -4016,23 +4011,21 @@
         <v>35</v>
       </c>
       <c r="E36" s="15">
-        <v>40921</v>
+        <v>29221</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>70</v>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>31</v>
@@ -4042,11 +4035,11 @@
         <v>35</v>
       </c>
       <c r="E37" s="15">
-        <v>38237</v>
+        <v>18629</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -4054,9 +4047,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>31</v>
@@ -4065,12 +4058,10 @@
       <c r="D38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="15">
-        <v>38826</v>
-      </c>
+      <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -4078,9 +4069,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>31</v>
@@ -4090,21 +4081,23 @@
         <v>35</v>
       </c>
       <c r="E39" s="15">
-        <v>41283</v>
+        <v>40921</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="I39" s="19"/>
       <c r="J39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>31</v>
@@ -4114,11 +4107,11 @@
         <v>35</v>
       </c>
       <c r="E40" s="15">
-        <v>37408</v>
+        <v>38237</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -4126,9 +4119,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>31</v>
@@ -4138,11 +4131,11 @@
         <v>35</v>
       </c>
       <c r="E41" s="15">
-        <v>18264</v>
+        <v>38826</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -4150,9 +4143,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>31</v>
@@ -4162,11 +4155,11 @@
         <v>35</v>
       </c>
       <c r="E42" s="15">
-        <v>18264</v>
+        <v>41283</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -4174,23 +4167,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E43" s="15">
-        <v>38904</v>
+        <v>37408</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -4198,9 +4191,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>31</v>
@@ -4214,7 +4207,7 @@
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -4222,9 +4215,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>31</v>
@@ -4238,7 +4231,7 @@
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -4246,23 +4239,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E46" s="15">
-        <v>29221</v>
+        <v>38904</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -4270,9 +4263,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>31</v>
@@ -4282,11 +4275,11 @@
         <v>35</v>
       </c>
       <c r="E47" s="15">
-        <v>37322</v>
+        <v>18264</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -4294,9 +4287,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>31</v>
@@ -4305,20 +4298,22 @@
       <c r="D48" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="15">
+        <v>18264</v>
+      </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>31</v>
@@ -4328,11 +4323,11 @@
         <v>35</v>
       </c>
       <c r="E49" s="15">
-        <v>18629</v>
+        <v>29221</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -4340,9 +4335,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>31</v>
@@ -4352,11 +4347,11 @@
         <v>35</v>
       </c>
       <c r="E50" s="15">
-        <v>37565</v>
+        <v>37322</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -4364,9 +4359,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="22" customFormat="1">
       <c r="A51" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>31</v>
@@ -4375,24 +4370,20 @@
       <c r="D51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="15">
-        <v>42822</v>
-      </c>
-      <c r="F51" s="15">
-        <v>43563</v>
-      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>31</v>
@@ -4402,11 +4393,11 @@
         <v>35</v>
       </c>
       <c r="E52" s="15">
-        <v>42822</v>
+        <v>18629</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -4414,9 +4405,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>31</v>
@@ -4426,11 +4417,11 @@
         <v>35</v>
       </c>
       <c r="E53" s="15">
-        <v>18629</v>
+        <v>37565</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -4438,9 +4429,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>31</v>
@@ -4450,23 +4441,23 @@
         <v>35</v>
       </c>
       <c r="E54" s="15">
-        <v>42121</v>
-      </c>
-      <c r="F54" s="19"/>
+        <v>42822</v>
+      </c>
+      <c r="F54" s="15">
+        <v>43563</v>
+      </c>
       <c r="G54" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>31</v>
@@ -4476,23 +4467,21 @@
         <v>35</v>
       </c>
       <c r="E55" s="15">
-        <v>44138</v>
+        <v>42822</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15.6" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>31</v>
@@ -4502,49 +4491,47 @@
         <v>35</v>
       </c>
       <c r="E56" s="15">
-        <v>43272</v>
+        <v>18629</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>112</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="19" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="E57" s="15">
+        <v>42121</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>31</v>
@@ -4554,23 +4541,23 @@
         <v>35</v>
       </c>
       <c r="E58" s="15">
-        <v>36526</v>
+        <v>44138</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="19" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>31</v>
@@ -4579,42 +4566,50 @@
       <c r="D59" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="15">
+        <v>43272</v>
+      </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="I59" s="19"/>
       <c r="J59" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="I60" s="19"/>
       <c r="J60" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>31</v>
@@ -4623,20 +4618,24 @@
       <c r="D61" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="15">
+        <v>36526</v>
+      </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="I61" s="19"/>
       <c r="J61" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>31</v>
@@ -4645,12 +4644,10 @@
       <c r="D62" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="15">
-        <v>37390</v>
-      </c>
+      <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -4658,9 +4655,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>31</v>
@@ -4672,7 +4669,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -4680,9 +4677,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>31</v>
@@ -4691,12 +4688,10 @@
       <c r="D64" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="15">
-        <v>18629</v>
-      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -4704,9 +4699,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>31</v>
@@ -4715,10 +4710,12 @@
       <c r="D65" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="15">
+        <v>37390</v>
+      </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -4726,9 +4723,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>31</v>
@@ -4740,7 +4737,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -4748,9 +4745,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>31</v>
@@ -4760,11 +4757,11 @@
         <v>35</v>
       </c>
       <c r="E67" s="15">
-        <v>37408</v>
+        <v>18629</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -4772,9 +4769,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>31</v>
@@ -4783,12 +4780,10 @@
       <c r="D68" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="15">
-        <v>37408</v>
-      </c>
+      <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -4796,9 +4791,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>31</v>
@@ -4810,7 +4805,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -4818,9 +4813,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>31</v>
@@ -4830,11 +4825,11 @@
         <v>35</v>
       </c>
       <c r="E70" s="15">
-        <v>37669</v>
+        <v>37408</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -4842,9 +4837,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>31</v>
@@ -4853,10 +4848,12 @@
       <c r="D71" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="15">
+        <v>37408</v>
+      </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -4864,9 +4861,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>31</v>
@@ -4875,12 +4872,10 @@
       <c r="D72" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="15">
-        <v>37574</v>
-      </c>
+      <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -4888,9 +4883,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>31</v>
@@ -4899,10 +4894,12 @@
       <c r="D73" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="19"/>
+      <c r="E73" s="15">
+        <v>37669</v>
+      </c>
       <c r="F73" s="19"/>
       <c r="G73" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -4910,9 +4907,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>31</v>
@@ -4924,7 +4921,7 @@
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -4932,51 +4929,86 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="13"/>
+    <row r="75" spans="1:10">
+      <c r="A75" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="15">
+        <v>37574</v>
+      </c>
       <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
+      <c r="G75" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="13"/>
+      <c r="J75" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="C76" s="19"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="19"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="G76" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="13"/>
+      <c r="J76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="C77" s="19"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="19"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J77" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="19"/>
       <c r="B78" s="13"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="23"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="15"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="19"/>
       <c r="B79" s="13"/>
       <c r="C79" s="19"/>
@@ -4987,7 +5019,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="19"/>
       <c r="B80" s="13"/>
       <c r="C80" s="19"/>
@@ -4998,19 +5030,52 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="27"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="81" spans="1:9">
+      <c r="A81" s="19"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="19"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="19"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
         <v>150</v>
       </c>
     </row>
